--- a/Spatial/PDFs/compare_spontaneous_activity_dataT_Spike_Rate_motion_rest.xlsx
+++ b/Spatial/PDFs/compare_spontaneous_activity_dataT_Spike_Rate_motion_rest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{974F0167-61E2-4F61-90AB-80CE1D7CBE02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0CCC9F-A7AE-4912-A3AD-A5365A954DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{C8C91F75-2DFE-48C7-BDA2-AAD761FE3687}"/>
   </bookViews>
